--- a/bici-pcb-BOM-V2.xlsx
+++ b/bici-pcb-BOM-V2.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truth\OneDrive\Desktop\ACADEMICS\ENGN1650\engn1650-bici-pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9458F9FF-89E5-4E36-A27A-FAA8F98265B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8FFE41-85D8-48AA-BA9F-D60A3495C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{55E91D7C-6B8F-4C20-9AE7-12082F25E5D5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{ED66ACA4-EA01-4FC2-A1E0-0AD1F728548A}"/>
   </bookViews>
   <sheets>
     <sheet name="bici-pcb-BOM-V2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'bici-pcb-BOM-V2'!$1:$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -59,49 +56,40 @@
     <t>Manufacturer PN</t>
   </si>
   <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Vendor PN</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Vendor PN</t>
-  </si>
-  <si>
-    <t>BK-18650-CLIP</t>
-  </si>
-  <si>
-    <t>BATT CONTACT CLIP 18650 PC PIN</t>
-  </si>
-  <si>
-    <t>BT1, BT2</t>
-  </si>
-  <si>
-    <t>MPD (Memory Protection Devices)</t>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>GMC10X7R475K10NT</t>
+  </si>
+  <si>
+    <t>CAP0603 X7R 4.7UF 10% 10V</t>
+  </si>
+  <si>
+    <t>C1, C2, C402</t>
+  </si>
+  <si>
+    <t>Cal-Chip Electronics, Inc.</t>
   </si>
   <si>
     <t>DigiKey</t>
   </si>
   <si>
-    <t>61-BK-18650-CLIP-ND</t>
-  </si>
-  <si>
-    <t>GMC10X7R475K10NT</t>
-  </si>
-  <si>
-    <t>CAP0603 X7R 4.7UF 10% 10V</t>
-  </si>
-  <si>
-    <t>C1, C2, C402</t>
-  </si>
-  <si>
-    <t>Cal-Chip Electronics, Inc.</t>
+    <t>4713-GMC10X7R475K10NTCT-ND</t>
   </si>
   <si>
     <t>4.7uF 10V</t>
   </si>
   <si>
-    <t>4713-GMC10X7R475K10NTCT-ND</t>
+    <t>0603</t>
   </si>
   <si>
     <t>GRM188R60J106ME84D</t>
@@ -110,46 +98,31 @@
     <t>CAP CER 10UF 6.3V X5R 0603</t>
   </si>
   <si>
-    <t>C3, C5, C6</t>
+    <t>C3, C4, C5</t>
   </si>
   <si>
     <t>Murata Electronics</t>
   </si>
   <si>
+    <t>490-7316-1-ND</t>
+  </si>
+  <si>
     <t>10uF 6.3V</t>
   </si>
   <si>
-    <t>490-7316-1-ND</t>
-  </si>
-  <si>
-    <t>GRM188R72A104KA35D</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 100V X7R 0603</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>0.1uF 100V</t>
-  </si>
-  <si>
-    <t>490-3285-1-ND</t>
-  </si>
-  <si>
-    <t>GRM033R61A104KE15D</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 10V X5R 0201</t>
+    <t>KGM15AR70J104JT</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 6.3V X7R 0603</t>
   </si>
   <si>
     <t>C101, C401</t>
   </si>
   <si>
-    <t>0.1uF 10V</t>
-  </si>
-  <si>
-    <t>490-5881-1-ND</t>
+    <t>478-KGM15AR70J104JTCT-ND</t>
+  </si>
+  <si>
+    <t>0.1uF 6.3V</t>
   </si>
   <si>
     <t>GRM188R61E225KA12D</t>
@@ -161,12 +134,12 @@
     <t>C102</t>
   </si>
   <si>
+    <t>490-10731-1-ND</t>
+  </si>
+  <si>
     <t>2.2 uF 25 V</t>
   </si>
   <si>
-    <t>490-10731-1-ND</t>
-  </si>
-  <si>
     <t>KGM15AV51H103ZT</t>
   </si>
   <si>
@@ -179,19 +152,19 @@
     <t>KYOCERA AVX</t>
   </si>
   <si>
+    <t>478-KGM15AV51H103ZTCT-ND</t>
+  </si>
+  <si>
     <t>10 nF 50V</t>
   </si>
   <si>
-    <t>478-KGM15AV51H103ZTCT-ND</t>
-  </si>
-  <si>
     <t>T1681UY--20C000212U1930</t>
   </si>
   <si>
     <t>LED AMBER CLEAR 4PLCC SMD</t>
   </si>
   <si>
-    <t>D1, D21, D22, D23, D24, D25, D26, D27, D28, D29, D30, D31, D32, D33, D34</t>
+    <t>D1, D201, D202, D203, D204, D205, D206, D207, D208, D209, D210, D211, D212, D213, D214</t>
   </si>
   <si>
     <t>Harvatek Corporation</t>
@@ -200,6 +173,9 @@
     <t>3147-T1681UY--20C000212U1930CT-ND</t>
   </si>
   <si>
+    <t>4-PLCC</t>
+  </si>
+  <si>
     <t>AP3216ID</t>
   </si>
   <si>
@@ -215,6 +191,9 @@
     <t>754-AP3216IDCT-ND</t>
   </si>
   <si>
+    <t>1206</t>
+  </si>
+  <si>
     <t>10164359-00011LF</t>
   </si>
   <si>
@@ -230,10 +209,25 @@
     <t>609-10164359-00011LFCT-ND</t>
   </si>
   <si>
-    <t>3220-14-0300-00-TR</t>
-  </si>
-  <si>
-    <t>CONN HEADER SMD 14POS 1.27MM</t>
+    <t>0530480210</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 2POS 1.25MM</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>WM1742-ND</t>
+  </si>
+  <si>
+    <t>3220-14-0100-00</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 14POS 1.27MM</t>
   </si>
   <si>
     <t>J401</t>
@@ -242,22 +236,28 @@
     <t>CNC Tech</t>
   </si>
   <si>
-    <t>1175-2644-1-ND</t>
-  </si>
-  <si>
-    <t>LQH3NPN1R5MJRL</t>
-  </si>
-  <si>
-    <t>FIXED IND 1.5UH 1.1A 58.8MOHM SM</t>
+    <t>1175-1630-ND</t>
+  </si>
+  <si>
+    <t>CIGW252010GL2R2MNE</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 2.2A 93MOHM SMD</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>1.5uH</t>
-  </si>
-  <si>
-    <t>490-9576-1-ND</t>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>1276-6933-1-ND</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>1008</t>
   </si>
   <si>
     <t>AS02832MR-2-R</t>
@@ -275,39 +275,42 @@
     <t>668-AS02832MR-2-R-ND</t>
   </si>
   <si>
-    <t>ERJ-3EKF5101V</t>
-  </si>
-  <si>
-    <t>RES SMD 5.1K OHM 1% 1/10W 0603</t>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>RES 5.1K OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>R1, R2</t>
   </si>
   <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>311-5.10KHRCT-ND</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4700V</t>
+  </si>
+  <si>
+    <t>RES SMD 470 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R3, R401</t>
+  </si>
+  <si>
     <t>Panasonic Electronic Components</t>
   </si>
   <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>P5.10KHCT-ND</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF4700V</t>
-  </si>
-  <si>
-    <t>RES SMD 470 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R3, R401</t>
+    <t>P470HCT-ND</t>
   </si>
   <si>
     <t>470</t>
   </si>
   <si>
-    <t>P470HCT-ND</t>
-  </si>
-  <si>
     <t>ERJ-3EKF2001V</t>
   </si>
   <si>
@@ -317,55 +320,55 @@
     <t>R4</t>
   </si>
   <si>
+    <t>P2.00KHCT-ND</t>
+  </si>
+  <si>
     <t>2k</t>
   </si>
   <si>
-    <t>P2.00KHCT-ND</t>
-  </si>
-  <si>
     <t>ERJ-3EKF1004V</t>
   </si>
   <si>
     <t>RES SMD 1M OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R5, R6</t>
+    <t>R5, R6, R402</t>
+  </si>
+  <si>
+    <t>P1.00MHCT-ND</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
-    <t>P1.00MHCT-ND</t>
-  </si>
-  <si>
     <t>ERJ-3GEY0R00V</t>
   </si>
   <si>
     <t>RES SMD 0 OHM JUMPER 1/10W 0603</t>
   </si>
   <si>
-    <t>R7, R8, R9</t>
+    <t>R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>P0.0GCT-ND</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>P0.0GCT-ND</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1000V</t>
-  </si>
-  <si>
-    <t>RES SMD 100 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R201, R204, R207, R210, R213, R216, R219, R222, R225, R228, R231, R234, R237, R240</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>P100HCT-ND</t>
+    <t>ERJ-3EKF60R4V</t>
+  </si>
+  <si>
+    <t>RES SMD 60.4 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R201, R202, R203, R204, R205, R206, R207, R208, R209, R210, R211, R212, R213, R214</t>
+  </si>
+  <si>
+    <t>P60.4HCT-ND</t>
+  </si>
+  <si>
+    <t>60.4</t>
   </si>
   <si>
     <t>ERJ-3EKF1002V</t>
@@ -374,30 +377,15 @@
     <t>RES SMD 10K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R202, R205, R208, R211, R214, R217, R220, R223, R226, R229, R232, R235, R238, R241, R301, R303, R402</t>
+    <t>R301, R303</t>
+  </si>
+  <si>
+    <t>P10.0KHCT-ND</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>P10.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF60R4V</t>
-  </si>
-  <si>
-    <t>RES SMD 60.4 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R203, R206, R209, R212, R215, R218, R221, R224, R227, R230, R233, R236, R239, R242</t>
-  </si>
-  <si>
-    <t>60.4</t>
-  </si>
-  <si>
-    <t>P60.4HCT-ND</t>
-  </si>
-  <si>
     <t>ERJ-3EKF10R0V</t>
   </si>
   <si>
@@ -407,10 +395,25 @@
     <t>R302, R304</t>
   </si>
   <si>
+    <t>P10.0HCT-ND</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>P10.0HCT-ND</t>
+    <t>SLW-864574-5A-RA-N-D</t>
+  </si>
+  <si>
+    <t>8.6 X 4.5 X 6.2 MM, 5 MM RAISED</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Same Sky (Formerly CUI Devices)</t>
+  </si>
+  <si>
+    <t>2223-SLW-864574-5A-RA-N-D-ND</t>
   </si>
   <si>
     <t>MCP73831T-2ATI/OT</t>
@@ -428,34 +431,25 @@
     <t>MCP73831T-2ATI/OTCT-ND</t>
   </si>
   <si>
-    <t>RA1113112R</t>
-  </si>
-  <si>
-    <t>SWITCH ROCKER SPST 10A 125V</t>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>RT6150B-33GQW</t>
+  </si>
+  <si>
+    <t>IC REG BCK BST 3.3V 800MA 10WDFN</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>E-Switch</t>
-  </si>
-  <si>
-    <t>EG5619-ND</t>
-  </si>
-  <si>
-    <t>TPS63031DSKT</t>
-  </si>
-  <si>
-    <t>IC REG BUCK BST 3.3V 900MA 10SON</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>296-23904-1-ND</t>
+    <t>Richtek USA Inc.</t>
+  </si>
+  <si>
+    <t>RT6150B-33GQWCT-ND</t>
+  </si>
+  <si>
+    <t>10-WDFN</t>
   </si>
   <si>
     <t>ICM-42670-P</t>
@@ -473,13 +467,34 @@
     <t>1428-ICM-42670-PCT-ND</t>
   </si>
   <si>
+    <t>14-VFLGA</t>
+  </si>
+  <si>
+    <t>MC74HC244ADTR2G</t>
+  </si>
+  <si>
+    <t>IC BUFFER NON-INVERT 6V 20-TSSOP</t>
+  </si>
+  <si>
+    <t>U201, U202</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>MC74HC244ADTR2GOSCT-ND</t>
+  </si>
+  <si>
+    <t>20-TSSOP</t>
+  </si>
+  <si>
     <t>DMG1012UW-7</t>
   </si>
   <si>
     <t>MOSFET N-CH 20V 1A SOT323</t>
   </si>
   <si>
-    <t>U201, U202, U203, U204, U205, U206, U207, U208, U209, U210, U211, U212, U213, U214, U301, U302</t>
+    <t>U301, U302</t>
   </si>
   <si>
     <t>Diodes Incorporated</t>
@@ -488,6 +503,9 @@
     <t>DMG1012UW-7DICT-ND</t>
   </si>
   <si>
+    <t>SOT-323</t>
+  </si>
+  <si>
     <t>STM32L412C8T6</t>
   </si>
   <si>
@@ -501,6 +519,9 @@
   </si>
   <si>
     <t>497-STM32L412C8T6-ND</t>
+  </si>
+  <si>
+    <t>48-LQFP</t>
   </si>
 </sst>
 </file>
@@ -896,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6288F538-C468-40A9-87A0-177B486AB422}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733A900A-FC0D-448A-9D4A-7A890CDAF983}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -905,10 +926,10 @@
   <cols>
     <col min="1" max="3" width="15.3125" customWidth="1"/>
     <col min="4" max="4" width="10.15625" customWidth="1"/>
-    <col min="5" max="9" width="15.3125" customWidth="1"/>
+    <col min="5" max="10" width="15.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -936,797 +957,839 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="F20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="1">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="1">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="1">
-        <v>14</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>142</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="1">
-        <v>16</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>